--- a/MEDIA/3013_拉亞直營營業額(2020-09-01~2020-09-30).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-09-01~2020-09-30).xlsx
@@ -510,80 +510,80 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18730</v>
+        <v>24942</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="F3" t="n">
-        <v>3145</v>
+        <v>10949</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8</v>
+        <v>43.9</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="I3" t="n">
-        <v>3115</v>
+        <v>11623</v>
       </c>
       <c r="J3" t="n">
-        <v>16.6</v>
+        <v>46.6</v>
       </c>
       <c r="K3" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>4275</v>
+        <v>200</v>
       </c>
       <c r="M3" t="n">
-        <v>22.8</v>
+        <v>0.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="U3" t="n">
-        <v>4070</v>
+        <v>1780</v>
       </c>
       <c r="V3" t="n">
-        <v>21.7</v>
+        <v>7.1</v>
       </c>
       <c r="W3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3660</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="AA3" t="n">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -599,38 +599,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15850</v>
+        <v>23256</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F4" t="n">
-        <v>1810</v>
+        <v>10608</v>
       </c>
       <c r="G4" t="n">
-        <v>11.4</v>
+        <v>45.6</v>
       </c>
       <c r="H4" t="n">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I4" t="n">
-        <v>2780</v>
+        <v>9683</v>
       </c>
       <c r="J4" t="n">
-        <v>17.5</v>
+        <v>41.6</v>
       </c>
       <c r="K4" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>2885</v>
+        <v>1745</v>
       </c>
       <c r="M4" t="n">
-        <v>18.2</v>
+        <v>7.5</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>435</v>
+        <v>240</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>3335</v>
+        <v>980</v>
       </c>
       <c r="V4" t="n">
-        <v>21</v>
+        <v>4.2</v>
       </c>
       <c r="W4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>126</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5">
@@ -688,80 +688,80 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15910</v>
+        <v>21602</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
-        <v>1930</v>
+        <v>7528</v>
       </c>
       <c r="G5" t="n">
-        <v>12.1</v>
+        <v>34.8</v>
       </c>
       <c r="H5" t="n">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="I5" t="n">
-        <v>3295</v>
+        <v>7944</v>
       </c>
       <c r="J5" t="n">
-        <v>20.7</v>
+        <v>36.8</v>
       </c>
       <c r="K5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L5" t="n">
-        <v>2570</v>
+        <v>2400</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>11.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1370</v>
+        <v>325</v>
       </c>
       <c r="S5" t="n">
-        <v>8.6</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
-        <v>3140</v>
+        <v>3320</v>
       </c>
       <c r="V5" t="n">
-        <v>19.7</v>
+        <v>15.4</v>
       </c>
       <c r="W5" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3605</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="AA5" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -777,38 +777,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19125</v>
+        <v>25325</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
-        <v>2710</v>
+        <v>11721</v>
       </c>
       <c r="G6" t="n">
-        <v>14.2</v>
+        <v>46.3</v>
       </c>
       <c r="H6" t="n">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="I6" t="n">
-        <v>4625</v>
+        <v>9354</v>
       </c>
       <c r="J6" t="n">
-        <v>24.2</v>
+        <v>36.9</v>
       </c>
       <c r="K6" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
-        <v>3960</v>
+        <v>1585</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>6.3</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,37 +820,37 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1355</v>
+        <v>200</v>
       </c>
       <c r="S6" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="T6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="U6" t="n">
-        <v>4420</v>
+        <v>2465</v>
       </c>
       <c r="V6" t="n">
-        <v>23.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>2055</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="AA6" t="n">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -866,80 +866,80 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29635</v>
+        <v>30972</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>6660</v>
+        <v>11776</v>
       </c>
       <c r="G7" t="n">
-        <v>22.5</v>
+        <v>38</v>
       </c>
       <c r="H7" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I7" t="n">
-        <v>6960</v>
+        <v>9461</v>
       </c>
       <c r="J7" t="n">
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="K7" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L7" t="n">
-        <v>4945</v>
+        <v>4590</v>
       </c>
       <c r="M7" t="n">
-        <v>16.7</v>
+        <v>14.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="U7" t="n">
-        <v>7430</v>
+        <v>3645</v>
       </c>
       <c r="V7" t="n">
-        <v>25.1</v>
+        <v>11.8</v>
       </c>
       <c r="W7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2525</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="AA7" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33920</v>
+        <v>32027</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>5955</v>
+        <v>14368</v>
       </c>
       <c r="G8" t="n">
-        <v>17.6</v>
+        <v>44.9</v>
       </c>
       <c r="H8" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I8" t="n">
-        <v>8575</v>
+        <v>9144</v>
       </c>
       <c r="J8" t="n">
-        <v>25.3</v>
+        <v>28.6</v>
       </c>
       <c r="K8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L8" t="n">
-        <v>5440</v>
+        <v>4625</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>14.4</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,37 +998,37 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2445</v>
+        <v>630</v>
       </c>
       <c r="S8" t="n">
-        <v>7.2</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="U8" t="n">
-        <v>8470</v>
+        <v>3260</v>
       </c>
       <c r="V8" t="n">
-        <v>25</v>
+        <v>10.2</v>
       </c>
       <c r="W8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3035</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="AA8" t="n">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
@@ -1044,38 +1044,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21625</v>
+        <v>27378</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
-        <v>2560</v>
+        <v>11804</v>
       </c>
       <c r="G9" t="n">
-        <v>11.8</v>
+        <v>43.1</v>
       </c>
       <c r="H9" t="n">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="I9" t="n">
-        <v>5100</v>
+        <v>9349</v>
       </c>
       <c r="J9" t="n">
-        <v>23.6</v>
+        <v>34.1</v>
       </c>
       <c r="K9" t="n">
         <v>32</v>
       </c>
       <c r="L9" t="n">
-        <v>3050</v>
+        <v>3710</v>
       </c>
       <c r="M9" t="n">
-        <v>14.1</v>
+        <v>13.6</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1087,37 +1087,37 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="U9" t="n">
-        <v>5165</v>
+        <v>2515</v>
       </c>
       <c r="V9" t="n">
-        <v>23.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="AA9" t="n">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -1133,80 +1133,80 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18835</v>
+        <v>24837</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F10" t="n">
-        <v>1900</v>
+        <v>10721</v>
       </c>
       <c r="G10" t="n">
-        <v>10.1</v>
+        <v>43.2</v>
       </c>
       <c r="H10" t="n">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="I10" t="n">
-        <v>3245</v>
+        <v>8566</v>
       </c>
       <c r="J10" t="n">
-        <v>17.2</v>
+        <v>34.5</v>
       </c>
       <c r="K10" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L10" t="n">
-        <v>3045</v>
+        <v>1295</v>
       </c>
       <c r="M10" t="n">
-        <v>16.2</v>
+        <v>5.2</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>695</v>
+        <v>410</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="T10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U10" t="n">
-        <v>4730</v>
+        <v>3845</v>
       </c>
       <c r="V10" t="n">
-        <v>25.1</v>
+        <v>15.5</v>
       </c>
       <c r="W10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>5160</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="AA10" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -1222,38 +1222,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>16040</v>
+        <v>22870</v>
       </c>
       <c r="E11" t="n">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F11" t="n">
-        <v>2735</v>
+        <v>10475</v>
       </c>
       <c r="G11" t="n">
-        <v>17.1</v>
+        <v>45.8</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I11" t="n">
-        <v>3455</v>
+        <v>8665</v>
       </c>
       <c r="J11" t="n">
-        <v>21.5</v>
+        <v>37.9</v>
       </c>
       <c r="K11" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L11" t="n">
-        <v>3145</v>
+        <v>2730</v>
       </c>
       <c r="M11" t="n">
-        <v>19.6</v>
+        <v>11.9</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1265,37 +1265,37 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>8</v>
       </c>
-      <c r="R11" t="n">
-        <v>1280</v>
-      </c>
-      <c r="S11" t="n">
-        <v>8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>15</v>
-      </c>
       <c r="U11" t="n">
-        <v>2790</v>
+        <v>1000</v>
       </c>
       <c r="V11" t="n">
-        <v>17.4</v>
+        <v>4.4</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2635</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="AA11" t="n">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -1311,65 +1311,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22095</v>
+        <v>26908</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F12" t="n">
-        <v>2190</v>
+        <v>9107</v>
       </c>
       <c r="G12" t="n">
-        <v>9.9</v>
+        <v>33.8</v>
       </c>
       <c r="H12" t="n">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="I12" t="n">
-        <v>8010</v>
+        <v>9696</v>
       </c>
       <c r="J12" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="K12" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L12" t="n">
-        <v>2950</v>
+        <v>4215</v>
       </c>
       <c r="M12" t="n">
-        <v>13.4</v>
+        <v>15.7</v>
       </c>
       <c r="N12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="S12" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="U12" t="n">
-        <v>5560</v>
+        <v>3620</v>
       </c>
       <c r="V12" t="n">
-        <v>25.2</v>
+        <v>13.5</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="AA12" t="n">
-        <v>153</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1400,65 +1400,65 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18175</v>
+        <v>27642</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="F13" t="n">
-        <v>2605</v>
+        <v>12655</v>
       </c>
       <c r="G13" t="n">
-        <v>14.3</v>
+        <v>45.8</v>
       </c>
       <c r="H13" t="n">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="I13" t="n">
-        <v>4710</v>
+        <v>9932</v>
       </c>
       <c r="J13" t="n">
-        <v>25.9</v>
+        <v>35.9</v>
       </c>
       <c r="K13" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L13" t="n">
-        <v>4475</v>
+        <v>2315</v>
       </c>
       <c r="M13" t="n">
-        <v>24.6</v>
+        <v>8.4</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>550</v>
+        <v>190</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="T13" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="U13" t="n">
-        <v>5000</v>
+        <v>2550</v>
       </c>
       <c r="V13" t="n">
-        <v>27.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="AA13" t="n">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -1489,66 +1489,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>34770</v>
+        <v>37730</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="F14" t="n">
-        <v>5045</v>
+        <v>15625</v>
       </c>
       <c r="G14" t="n">
-        <v>14.5</v>
+        <v>41.4</v>
       </c>
       <c r="H14" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I14" t="n">
-        <v>14540</v>
+        <v>10280</v>
       </c>
       <c r="J14" t="n">
-        <v>41.8</v>
+        <v>27.2</v>
       </c>
       <c r="K14" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L14" t="n">
-        <v>4620</v>
+        <v>3665</v>
       </c>
       <c r="M14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2340</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>785</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>32</v>
+      </c>
+      <c r="U14" t="n">
+        <v>5035</v>
+      </c>
+      <c r="V14" t="n">
         <v>13.3</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2075</v>
-      </c>
-      <c r="S14" t="n">
-        <v>6</v>
-      </c>
-      <c r="T14" t="n">
-        <v>42</v>
-      </c>
-      <c r="U14" t="n">
-        <v>8490</v>
-      </c>
-      <c r="V14" t="n">
-        <v>24.4</v>
-      </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="AA14" t="n">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -1578,65 +1578,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33595</v>
+        <v>37611</v>
       </c>
       <c r="E15" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>4815</v>
+        <v>13123</v>
       </c>
       <c r="G15" t="n">
-        <v>14.3</v>
+        <v>34.9</v>
       </c>
       <c r="H15" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="I15" t="n">
-        <v>9270</v>
+        <v>12664</v>
       </c>
       <c r="J15" t="n">
-        <v>27.6</v>
+        <v>33.7</v>
       </c>
       <c r="K15" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L15" t="n">
-        <v>6765</v>
+        <v>4330</v>
       </c>
       <c r="M15" t="n">
-        <v>20.1</v>
+        <v>11.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4264</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1345</v>
+        <v>495</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="U15" t="n">
-        <v>11400</v>
+        <v>2735</v>
       </c>
       <c r="V15" t="n">
-        <v>33.9</v>
+        <v>7.3</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="AA15" t="n">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -1667,65 +1667,65 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17825</v>
+        <v>29252</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F16" t="n">
-        <v>1340</v>
+        <v>14113</v>
       </c>
       <c r="G16" t="n">
-        <v>7.5</v>
+        <v>48.2</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="I16" t="n">
-        <v>5570</v>
+        <v>9659</v>
       </c>
       <c r="J16" t="n">
-        <v>31.2</v>
+        <v>33</v>
       </c>
       <c r="K16" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="L16" t="n">
-        <v>3260</v>
+        <v>2105</v>
       </c>
       <c r="M16" t="n">
-        <v>18.3</v>
+        <v>7.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1160</v>
+        <v>195</v>
       </c>
       <c r="S16" t="n">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="T16" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>6495</v>
+        <v>3050</v>
       </c>
       <c r="V16" t="n">
-        <v>36.4</v>
+        <v>10.4</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="AA16" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1756,65 +1756,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18675</v>
+        <v>30615</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F17" t="n">
-        <v>1955</v>
+        <v>13353</v>
       </c>
       <c r="G17" t="n">
-        <v>10.5</v>
+        <v>43.6</v>
       </c>
       <c r="H17" t="n">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="I17" t="n">
-        <v>6370</v>
+        <v>10100</v>
       </c>
       <c r="J17" t="n">
-        <v>34.1</v>
+        <v>33</v>
       </c>
       <c r="K17" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
-        <v>3170</v>
+        <v>3280</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>10.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="U17" t="n">
-        <v>6010</v>
+        <v>3795</v>
       </c>
       <c r="V17" t="n">
-        <v>32.2</v>
+        <v>12.4</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="AA17" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -1845,65 +1845,65 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17880</v>
+        <v>30488</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="F18" t="n">
-        <v>630</v>
+        <v>11339</v>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>37.2</v>
       </c>
       <c r="H18" t="n">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="I18" t="n">
-        <v>5800</v>
+        <v>9189</v>
       </c>
       <c r="J18" t="n">
-        <v>32.4</v>
+        <v>30.1</v>
       </c>
       <c r="K18" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L18" t="n">
-        <v>3875</v>
+        <v>3090</v>
       </c>
       <c r="M18" t="n">
-        <v>21.7</v>
+        <v>10.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3465</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="U18" t="n">
-        <v>6450</v>
+        <v>3405</v>
       </c>
       <c r="V18" t="n">
-        <v>36.1</v>
+        <v>11.2</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="AA18" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
@@ -1934,65 +1934,65 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20020</v>
+        <v>28736</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F19" t="n">
-        <v>1810</v>
+        <v>12317</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>42.9</v>
       </c>
       <c r="H19" t="n">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="I19" t="n">
-        <v>2800</v>
+        <v>10254</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>35.7</v>
       </c>
       <c r="K19" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="L19" t="n">
-        <v>8735</v>
+        <v>3480</v>
       </c>
       <c r="M19" t="n">
-        <v>43.6</v>
+        <v>12.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>885</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U19" t="n">
-        <v>5465</v>
+        <v>2685</v>
       </c>
       <c r="V19" t="n">
-        <v>27.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="AA19" t="n">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
@@ -2023,80 +2023,80 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>19915</v>
+        <v>27299</v>
       </c>
       <c r="E20" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F20" t="n">
-        <v>670</v>
+        <v>12107</v>
       </c>
       <c r="G20" t="n">
-        <v>3.4</v>
+        <v>44.3</v>
       </c>
       <c r="H20" t="n">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="I20" t="n">
-        <v>7710</v>
+        <v>9512</v>
       </c>
       <c r="J20" t="n">
-        <v>38.7</v>
+        <v>34.8</v>
       </c>
       <c r="K20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L20" t="n">
-        <v>3815</v>
+        <v>3020</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>11.1</v>
       </c>
       <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>20</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2490</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="W20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" t="n">
-        <v>120</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="X20" t="n">
+        <v>170</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.6</v>
       </c>
-      <c r="Q20" t="n">
-        <v>9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1380</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>36</v>
-      </c>
-      <c r="U20" t="n">
-        <v>6220</v>
-      </c>
-      <c r="V20" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="AA20" t="n">
-        <v>138</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -2112,65 +2112,65 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32350</v>
+        <v>32190</v>
       </c>
       <c r="E21" t="n">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="F21" t="n">
-        <v>4475</v>
+        <v>15584</v>
       </c>
       <c r="G21" t="n">
-        <v>13.8</v>
+        <v>48.4</v>
       </c>
       <c r="H21" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>7911</v>
       </c>
       <c r="J21" t="n">
-        <v>30.9</v>
+        <v>24.6</v>
       </c>
       <c r="K21" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L21" t="n">
-        <v>6180</v>
+        <v>3630</v>
       </c>
       <c r="M21" t="n">
-        <v>19.1</v>
+        <v>11.3</v>
       </c>
       <c r="N21" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>10875</v>
+        <v>1210</v>
       </c>
       <c r="P21" t="n">
-        <v>33.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="U21" t="n">
-        <v>505</v>
+        <v>3855</v>
       </c>
       <c r="V21" t="n">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="AA21" t="n">
-        <v>164</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
@@ -2201,65 +2201,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36030</v>
+        <v>38528</v>
       </c>
       <c r="E22" t="n">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="F22" t="n">
-        <v>3375</v>
+        <v>14648</v>
       </c>
       <c r="G22" t="n">
-        <v>9.4</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I22" t="n">
-        <v>10735</v>
+        <v>8335</v>
       </c>
       <c r="J22" t="n">
-        <v>29.8</v>
+        <v>21.6</v>
       </c>
       <c r="K22" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L22" t="n">
-        <v>6490</v>
+        <v>3135</v>
       </c>
       <c r="M22" t="n">
-        <v>18</v>
+        <v>8.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6575</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>17.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1860</v>
+        <v>355</v>
       </c>
       <c r="S22" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="T22" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="U22" t="n">
-        <v>13570</v>
+        <v>5480</v>
       </c>
       <c r="V22" t="n">
-        <v>37.7</v>
+        <v>14.2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="AA22" t="n">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -2290,80 +2290,80 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20660</v>
+        <v>27977</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="F23" t="n">
-        <v>1190</v>
+        <v>11616</v>
       </c>
       <c r="G23" t="n">
-        <v>5.8</v>
+        <v>41.5</v>
       </c>
       <c r="H23" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="I23" t="n">
-        <v>5300</v>
+        <v>8281</v>
       </c>
       <c r="J23" t="n">
-        <v>25.7</v>
+        <v>29.6</v>
       </c>
       <c r="K23" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="L23" t="n">
-        <v>5645</v>
+        <v>1925</v>
       </c>
       <c r="M23" t="n">
-        <v>27.3</v>
+        <v>6.9</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>830</v>
+        <v>265</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>29</v>
+      </c>
+      <c r="U23" t="n">
+        <v>5055</v>
+      </c>
+      <c r="V23" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>13</v>
+      </c>
+      <c r="X23" t="n">
+        <v>835</v>
+      </c>
+      <c r="Y23" t="n">
         <v>3</v>
       </c>
-      <c r="T23" t="n">
-        <v>33</v>
-      </c>
-      <c r="U23" t="n">
-        <v>6080</v>
-      </c>
-      <c r="V23" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>995</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>4.8</v>
-      </c>
       <c r="Z23" t="n">
-        <v>162</v>
+        <v>264</v>
       </c>
       <c r="AA23" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -2379,38 +2379,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>23170</v>
+        <v>23272</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F24" t="n">
-        <v>2265</v>
+        <v>9512</v>
       </c>
       <c r="G24" t="n">
-        <v>9.800000000000001</v>
+        <v>40.9</v>
       </c>
       <c r="H24" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I24" t="n">
-        <v>7160</v>
+        <v>6311</v>
       </c>
       <c r="J24" t="n">
-        <v>30.9</v>
+        <v>27.1</v>
       </c>
       <c r="K24" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L24" t="n">
-        <v>6105</v>
+        <v>3795</v>
       </c>
       <c r="M24" t="n">
-        <v>26.3</v>
+        <v>16.3</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,37 +2422,37 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1285</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="U24" t="n">
-        <v>6355</v>
+        <v>2340</v>
       </c>
       <c r="V24" t="n">
-        <v>27.4</v>
+        <v>10.1</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1314</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="AA24" t="n">
-        <v>148</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25">
@@ -2468,65 +2468,65 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>20710</v>
+        <v>29289</v>
       </c>
       <c r="E25" t="n">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="F25" t="n">
-        <v>2230</v>
+        <v>13769</v>
       </c>
       <c r="G25" t="n">
-        <v>10.8</v>
+        <v>47</v>
       </c>
       <c r="H25" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="I25" t="n">
-        <v>4010</v>
+        <v>7595</v>
       </c>
       <c r="J25" t="n">
-        <v>19.4</v>
+        <v>25.9</v>
       </c>
       <c r="K25" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="L25" t="n">
-        <v>9315</v>
+        <v>4020</v>
       </c>
       <c r="M25" t="n">
-        <v>45</v>
+        <v>13.7</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U25" t="n">
-        <v>4465</v>
+        <v>3905</v>
       </c>
       <c r="V25" t="n">
-        <v>21.6</v>
+        <v>13.3</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="AA25" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -2557,80 +2557,80 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>17430</v>
+        <v>29001</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="F26" t="n">
-        <v>1720</v>
+        <v>12919</v>
       </c>
       <c r="G26" t="n">
-        <v>9.9</v>
+        <v>44.5</v>
       </c>
       <c r="H26" t="n">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="I26" t="n">
-        <v>3425</v>
+        <v>10412</v>
       </c>
       <c r="J26" t="n">
-        <v>19.7</v>
+        <v>35.9</v>
       </c>
       <c r="K26" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="L26" t="n">
-        <v>5535</v>
+        <v>2940</v>
       </c>
       <c r="M26" t="n">
-        <v>31.8</v>
+        <v>10.1</v>
       </c>
       <c r="N26" t="n">
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>13</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1905</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="W26" t="n">
         <v>1</v>
       </c>
-      <c r="R26" t="n">
-        <v>80</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T26" t="n">
-        <v>33</v>
-      </c>
-      <c r="U26" t="n">
-        <v>6330</v>
-      </c>
-      <c r="V26" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="AA26" t="n">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -2646,38 +2646,38 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20490</v>
+        <v>26806</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F27" t="n">
-        <v>2510</v>
+        <v>9071</v>
       </c>
       <c r="G27" t="n">
-        <v>12.2</v>
+        <v>33.8</v>
       </c>
       <c r="H27" t="n">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="I27" t="n">
-        <v>8235</v>
+        <v>11765</v>
       </c>
       <c r="J27" t="n">
-        <v>40.2</v>
+        <v>43.9</v>
       </c>
       <c r="K27" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L27" t="n">
-        <v>3630</v>
+        <v>2640</v>
       </c>
       <c r="M27" t="n">
-        <v>17.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2692,19 +2692,19 @@
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T27" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U27" t="n">
-        <v>5900</v>
+        <v>3225</v>
       </c>
       <c r="V27" t="n">
-        <v>28.8</v>
+        <v>12</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="n">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
@@ -2735,80 +2735,80 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27040</v>
+        <v>34548</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="F28" t="n">
-        <v>3830</v>
+        <v>12506</v>
       </c>
       <c r="G28" t="n">
-        <v>14.2</v>
+        <v>36.2</v>
       </c>
       <c r="H28" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="I28" t="n">
-        <v>9400</v>
+        <v>10660</v>
       </c>
       <c r="J28" t="n">
-        <v>34.8</v>
+        <v>30.9</v>
       </c>
       <c r="K28" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L28" t="n">
-        <v>6055</v>
+        <v>4425</v>
       </c>
       <c r="M28" t="n">
-        <v>22.4</v>
+        <v>12.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>220</v>
+        <v>735</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="T28" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="U28" t="n">
-        <v>7535</v>
+        <v>4290</v>
       </c>
       <c r="V28" t="n">
-        <v>27.9</v>
+        <v>12.4</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="AA28" t="n">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -2824,38 +2824,38 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35380</v>
+        <v>37181</v>
       </c>
       <c r="E29" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F29" t="n">
-        <v>3385</v>
+        <v>11916</v>
       </c>
       <c r="G29" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I29" t="n">
-        <v>11825</v>
+        <v>7840</v>
       </c>
       <c r="J29" t="n">
-        <v>33.4</v>
+        <v>21.1</v>
       </c>
       <c r="K29" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L29" t="n">
-        <v>7480</v>
+        <v>5190</v>
       </c>
       <c r="M29" t="n">
-        <v>21.1</v>
+        <v>14</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2870,34 +2870,34 @@
         <v>12</v>
       </c>
       <c r="R29" t="n">
-        <v>3755</v>
+        <v>2900</v>
       </c>
       <c r="S29" t="n">
-        <v>10.6</v>
+        <v>7.8</v>
       </c>
       <c r="T29" t="n">
         <v>37</v>
       </c>
       <c r="U29" t="n">
-        <v>8935</v>
+        <v>6750</v>
       </c>
       <c r="V29" t="n">
-        <v>25.3</v>
+        <v>18.2</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>2585</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="AA29" t="n">
-        <v>197</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -2913,80 +2913,80 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>25970</v>
+        <v>27049</v>
       </c>
       <c r="E30" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="F30" t="n">
-        <v>2225</v>
+        <v>9520</v>
       </c>
       <c r="G30" t="n">
-        <v>8.6</v>
+        <v>35.2</v>
       </c>
       <c r="H30" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I30" t="n">
-        <v>10855</v>
+        <v>7192</v>
       </c>
       <c r="J30" t="n">
-        <v>41.8</v>
+        <v>26.6</v>
       </c>
       <c r="K30" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L30" t="n">
-        <v>4180</v>
+        <v>1930</v>
       </c>
       <c r="M30" t="n">
-        <v>16.1</v>
+        <v>7.1</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>70</v>
+        <v>3805</v>
       </c>
       <c r="P30" t="n">
-        <v>0.3</v>
+        <v>14.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1080</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="U30" t="n">
-        <v>7560</v>
+        <v>3180</v>
       </c>
       <c r="V30" t="n">
-        <v>29.1</v>
+        <v>11.8</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="Z30" t="n">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="AA30" t="n">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31">
@@ -3002,38 +3002,38 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20245</v>
+        <v>27176</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F31" t="n">
-        <v>2010</v>
+        <v>10713</v>
       </c>
       <c r="G31" t="n">
-        <v>9.9</v>
+        <v>39.4</v>
       </c>
       <c r="H31" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I31" t="n">
-        <v>5240</v>
+        <v>8258</v>
       </c>
       <c r="J31" t="n">
-        <v>25.9</v>
+        <v>30.4</v>
       </c>
       <c r="K31" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L31" t="n">
-        <v>6630</v>
+        <v>3525</v>
       </c>
       <c r="M31" t="n">
-        <v>32.7</v>
+        <v>13</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3045,37 +3045,37 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="T31" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="U31" t="n">
-        <v>6195</v>
+        <v>3690</v>
       </c>
       <c r="V31" t="n">
-        <v>30.6</v>
+        <v>13.6</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>163</v>
+        <v>266</v>
       </c>
       <c r="AA31" t="n">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -3091,38 +3091,38 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>拉亞楊梅</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>23300</v>
+        <v>26078</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F32" t="n">
-        <v>2250</v>
+        <v>11636</v>
       </c>
       <c r="G32" t="n">
-        <v>9.699999999999999</v>
+        <v>44.6</v>
       </c>
       <c r="H32" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>5925</v>
+        <v>6382</v>
       </c>
       <c r="J32" t="n">
-        <v>25.4</v>
+        <v>24.5</v>
       </c>
       <c r="K32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L32" t="n">
-        <v>7815</v>
+        <v>3545</v>
       </c>
       <c r="M32" t="n">
-        <v>33.5</v>
+        <v>13.6</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3134,37 +3134,37 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1295</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="U32" t="n">
-        <v>6015</v>
+        <v>3250</v>
       </c>
       <c r="V32" t="n">
-        <v>25.8</v>
+        <v>12.5</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="Z32" t="n">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="AA32" t="n">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -3176,76 +3176,76 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>695395</v>
+        <v>868585</v>
       </c>
       <c r="E33" t="n">
-        <v>608</v>
+        <v>2771</v>
       </c>
       <c r="F33" t="n">
-        <v>81930</v>
+        <v>357099</v>
       </c>
       <c r="G33" t="n">
-        <v>11.8</v>
+        <v>41.1</v>
       </c>
       <c r="H33" t="n">
-        <v>1571</v>
+        <v>3248</v>
       </c>
       <c r="I33" t="n">
-        <v>198040</v>
+        <v>276017</v>
       </c>
       <c r="J33" t="n">
-        <v>28.5</v>
+        <v>31.8</v>
       </c>
       <c r="K33" t="n">
-        <v>1229</v>
+        <v>800</v>
       </c>
       <c r="L33" t="n">
-        <v>150040</v>
+        <v>93080</v>
       </c>
       <c r="M33" t="n">
-        <v>21.6</v>
+        <v>10.7</v>
       </c>
       <c r="N33" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="O33" t="n">
-        <v>16710</v>
+        <v>25606</v>
       </c>
       <c r="P33" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q33" t="n">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="R33" t="n">
-        <v>31015</v>
+        <v>8295</v>
       </c>
       <c r="S33" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>943</v>
+        <v>617</v>
       </c>
       <c r="U33" t="n">
-        <v>184085</v>
+        <v>99100</v>
       </c>
       <c r="V33" t="n">
-        <v>26.5</v>
+        <v>11.4</v>
       </c>
       <c r="W33" t="n">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="X33" t="n">
-        <v>33575</v>
+        <v>9388</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.8</v>
+        <v>1.1</v>
       </c>
       <c r="Z33" t="n">
-        <v>4806</v>
+        <v>7662</v>
       </c>
       <c r="AA33" t="n">
-        <v>145</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
